--- a/medicine/Mort/Décès_en_1938/Décès_en_1938.xlsx
+++ b/medicine/Mort/Décès_en_1938/Décès_en_1938.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1938</t>
+          <t>Décès_en_1938</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1938</t>
+          <t>Décès_en_1938</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Annette Abrard, peintre française (° 12 août 1860).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Annette Abrard, peintre française (° 12 août 1860).
 Albert Aublet, peintre français (° 18 janvier 1851).
 Adolfo Belimbau, peintre italien (° 1845).
 Salih Budka, patriote, homme politique et poète nationaliste albanais (° 1852).
@@ -539,9 +556,43 @@
 Marie Desliens, peintre française (° 1856).
 Émile Godchaux, peintre français (° 1860).
 Après 1938 :
-Federigo Pedulli, peintre italien (° 15 février 1860).
-Janvier
-8 janvier : Christian Rohlfs, peintre allemand (° 22 novembre 1849).
+Federigo Pedulli, peintre italien (° 15 février 1860).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>8 janvier : Christian Rohlfs, peintre allemand (° 22 novembre 1849).
 12 janvier : Eugène Lomont, peintre français (° 25 septembre 1864).
 14 janvier : Giacomo Grosso, peintre italien (° 23 mai 1860).
 18 janvier :
@@ -560,9 +611,43 @@
 26 janvier :
 Matthew Betz, acteur américain (° 13 septembre 1881).
 Eugène-Jules Eudes, aquarelliste français (° 11 mai 1856).
-27 janvier : Hans Pöögelmann, juriste, traducteur et homme politique estonien (° 30 décembre 1875).
-Février
-2 février : Félix Fournery peintre, illustrateur de mode et commentateur mondain français (° 13 mai 1865).
+27 janvier : Hans Pöögelmann, juriste, traducteur et homme politique estonien (° 30 décembre 1875).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Félix Fournery peintre, illustrateur de mode et commentateur mondain français (° 13 mai 1865).
 5 février :
 Ernest Clair-Guyot, peintre, illustrateur, lithographe et photographe français (° 30 juin 1856).
 Sergueï Vinogradov, peintre russe puis soviétique (° 13 juillet 1869).
@@ -581,9 +666,43 @@
 26 février :
 Aleksandrs Drēviņš, peintre russe puis soviétique (° 15 juillet 1889).
 Gustav Klucis, peintre russe puis soviétique (° 4 janvier 1895).
-28 février : Ettore De Maria Bergler, peintre italien (° 25 décembre 1850).
-Mars
-3 mars : Charles Spindler, peintre, illustrateur, ébéniste, écrivain et photographe français (° 11 mars 1865).
+28 février : Ettore De Maria Bergler, peintre italien (° 25 décembre 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars : Charles Spindler, peintre, illustrateur, ébéniste, écrivain et photographe français (° 11 mars 1865).
 12 mars : Albert Desenfans, sculpteur belge (° 24 janvier 1845).
 15 mars :
 Guenrikh Iagoda, révolutionnaire bolchevique russe puis soviétique (° 7 novembre 1891).
@@ -600,9 +719,43 @@
 23 mars : Thomas Walter Scott, premier ministre de la Saskatchewan (° 27 octobre 1867).
 26 mars : Edward Mandell House, diplomate et homme politique américain (° 26 juillet 1858).
 27 mars : Romolo Bacchini, peintre, musicien, poète et réalisateur, pionnier du cinéma italien (° 11 avril 1872).
-30 mars : Adolphe Albert, peintre, graveur et militaire français (° 28 juin 1853).
-Avril
-5 avril : Hugo Naude, peintre britannique puis sud-africain (° 23 juillet 1868)
+30 mars : Adolphe Albert, peintre, graveur et militaire français (° 28 juin 1853).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5 avril : Hugo Naude, peintre britannique puis sud-africain (° 23 juillet 1868)
 7 avril : Suzanne Valadon, modèle et peintre française (° 23 septembre 1865).
 12 avril :
 Fédor Chaliapine, artiste lyrique russe (° 13 février 1873).
@@ -613,9 +766,43 @@
 Jan Vilímek, peintre et illustrateur austro-hongrois puis tchécoslovaque (° 1er janvier 1860).
 21 avril : Sultan Majid Afandiyev, Homme d'État et révolutionnaire azéri, à l'époque Union des républiques socialistes soviétiques (° 26 mai 1887).
 24 avril : John Wycliffe Lowes Forster, artiste canadien (° 31 décembre 1850).
-26 avril : Edmund Husserl, philosophe, logicien et mathématicien allemand (° 8 avril 1859).
-Mai
-1er mai : Giuseppe Boano, peintre, graveur, affichiste et illustrateur italien (° 20 novembre 1872).
+26 avril : Edmund Husserl, philosophe, logicien et mathématicien allemand (° 8 avril 1859).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Giuseppe Boano, peintre, graveur, affichiste et illustrateur italien (° 20 novembre 1872).
 2 mai : René Pinard, peintre et graveur français (° 8 mars 1883).
 4 mai : Jigorō Kanō, fondateur du judo (° 28 octobre 1860).
 5 mai : Étienne Mein, peintre et graveur français (° 27 novembre 1865).
@@ -626,16 +813,84 @@
 18 mai : Iakov Mintchenkov, peintre russe puis soviétique (° 13 avril 1871).
 28 mai : Fernand Mourret, prêtre, historien et écrivain français (° 3 décembre 1854).
 30 mai : René Leverd, aquarelliste , affichiste et illustrateur français (° 5 février 1872).
-31 mai : Hale Asaf, peintre turque (° 1905).
-Juin
-2 juin : Louis Morin, caricaturiste, illustrateur et peintre français (° 5 août 1855).
+31 mai : Hale Asaf, peintre turque (° 1905).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Louis Morin, caricaturiste, illustrateur et peintre français (° 5 août 1855).
 4 juin : Émile Dezaunay, peintre et graveur français (° 25 février 1854).
 5 juin : Henry Marks, homme d'affaires, homme politique et philanthrope fidjien (° 1861).
 7 juin : Victor Dupré, coureur cycliste français (° 11 mars 1884).
 15 juin : Ernst Kirchner, peintre allemand (° 6 mai 1880).
-19 juin : Roger Grillon, peintre, illustrateur et graveur sur bois français (° 28 septembre 1881).
-Juillet
-1er juillet : Norberto Piñero, avocat, juriste, économiste et homme politique argentin (° 6 janvier 1858).
+19 juin : Roger Grillon, peintre, illustrateur et graveur sur bois français (° 28 septembre 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Norberto Piñero, avocat, juriste, économiste et homme politique argentin (° 6 janvier 1858).
 4 juillet :
 Otto Bauer, homme politique autrichien (° 5 septembre 1881).
 Suzanne Lenglen, championne de tennis française (° 24 mai 1899).
@@ -645,9 +900,43 @@
 17 juillet : Victor Pierre Ménard, peintre français (° 8 février 1857).
 24 juillet : Pedro Figari, peintre, écrivain et homme politique uruguayen (° 29 juin 1861).
 25 juillet : Francis Longworth Haszard, premier ministre de l'Île-du-Prince-Édouard (° 20 novembre 1849).
-29 juillet : Boris Choumiatski, homme politique russe puis soviétique (° 4 novembre 1886).
-Août
-1er août : Iakov Agranov, homme politique russe puis soviétique (° 12 octobre 1893).
+29 juillet : Boris Choumiatski, homme politique russe puis soviétique (° 4 novembre 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : Iakov Agranov, homme politique russe puis soviétique (° 12 octobre 1893).
 4 août : Léon Danchin, sculpteur, peintre animalier et graveur français (° 21 juin 1887).
 6 août : John G. Blystone, scénariste, acteur, réalisateur et producteur américain (° 2 décembre 1892).
 8 août : Charles Dufresne, peintre, graveur, sculpteur et décorateur français (° 23 novembre 1876).
@@ -658,15 +947,83 @@
 Cesare Facciani, coureur cycliste italien (° 21 juillet 1905).
 Boris Kamkov, homme politique russe puis soviétique (° 3 juin 1885).
 Béla Kun, homme politique hongrois (° 20 février 1886).
-31 août : Manolo Bienvenida, matador espagnol (° 23 novembre 1912).
-Septembre
-1er septembre : Nikolaï Ossinski, homme politique et économiste russe puis soviétique (° 25 février 1887).
+31 août : Manolo Bienvenida, matador espagnol (° 23 novembre 1912).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Nikolaï Ossinski, homme politique et économiste russe puis soviétique (° 25 février 1887).
 4 septembre : Ladislas de Rohozinski, compositeur français d'origine polonaise (° 1886).
 16 septembre : Herman Baltia, officier supérieur belge (° 1er septembre 1863).
 24 septembre : Eugène Delâtre, peintre français (° 10 décembre 1864).
-25 septembre : Lev Zadov, activiste politique ukrainien (° 11 avril 1893).
-Octobre
-5 octobre : Chieko Takamura, poétesse japonaise (° 20 mai 1886).
+25 septembre : Lev Zadov, activiste politique ukrainien (° 11 avril 1893).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5 octobre : Chieko Takamura, poétesse japonaise (° 20 mai 1886).
 6 octobre : Noël Dorville, peintre, caricaturiste et affichiste français (° 12 mai 1874).
 10 octobre : Bahire Bediş Morova Aydilek, femme politique et peintre turque (° 1897).
 16 octobre : Louis Carbonnel, peintre français (° 1er mars 1858).
@@ -678,9 +1035,43 @@
 Raoul de Mathan, peintre français (° 11 mars 1874).
 31 octobre :
 Henri Royer, peintre français (° 22 janvier 1869).
-Robert Woolsey, acteur américain (° 14 août 1888).
-Novembre
-10 novembre :
+Robert Woolsey, acteur américain (° 14 août 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>10 novembre :
 Mustafa Kemal Atatürk, homme d'État turc, fondateur et premier président de la république de Turquie (° 19 mai 1881).
 Ernst Boehe, compositeur et chef d'orchestre allemand (° 27 décembre 1880).
 17 novembre : Ante Trumbić, homme politique croate (° 17 mai 1864).
@@ -689,9 +1080,43 @@
 Orneore Metelli, peintre italien (° 2 juin 1872).
 Henri Villain, peintre français (° 20 juin 1878).
 28 novembre : John William Fordham Johnson, banquier, homme d'affaires et homme politique canadien (° 28 novembre 1866).
-29 novembre : Angelo Fortunato Formiggini, philosophe et éditeur italien (° 21 juin 1878).
-Décembre
-14 décembre : Maurice Emmanuel, compositeur et musicologue français (° 2 mai 1862).
+29 novembre : Angelo Fortunato Formiggini, philosophe et éditeur italien (° 21 juin 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1938</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1938</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>14 décembre : Maurice Emmanuel, compositeur et musicologue français (° 2 mai 1862).
 15 décembre : Valeri Tchkalov, aviateur soviétique (° 2 février 1904).
 17 décembre : Ogawa Mokichi, peintre japonais (° 11 mars 1868).
 24 décembre : Lev Skrbenský z Hříště, cardinal tchèque (° 12 juin 1863).
